--- a/sputnik/personal/uch/uch54.xlsx
+++ b/sputnik/personal/uch/uch54.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Оплачено</t>
   </si>
   <si>
     <t xml:space="preserve">Начислено </t>
-  </si>
-  <si>
-    <t>Наименование</t>
   </si>
   <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
@@ -35,12 +32,18 @@
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №54</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +58,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,12 +180,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,9 +514,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -516,7 +531,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>9703.4699999999993</v>
@@ -528,7 +543,7 @@
         <v>43337</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -540,7 +555,7 @@
         <v>43379</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
@@ -552,7 +567,7 @@
         <v>43586</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7">
         <v>9565.7099999999991</v>
@@ -564,7 +579,7 @@
         <v>43656</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7">
@@ -578,9 +593,6 @@
       <c r="D8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch54.xlsx
+++ b/sputnik/personal/uch/uch54.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №54</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -189,6 +192,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,7 +503,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -587,9 +591,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10762.5</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch54.xlsx
+++ b/sputnik/personal/uch/uch54.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,6 +193,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -500,10 +504,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,10 +601,22 @@
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="15">
         <v>10762.5</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>44018</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
+        <v>10762.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch54.xlsx
+++ b/sputnik/personal/uch/uch54.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A10" sqref="A10:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -617,6 +620,60 @@
       <c r="D9" s="15">
         <v>10762.5</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>11477.13</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch54.xlsx
+++ b/sputnik/personal/uch/uch54.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -510,7 +510,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,10 +634,16 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="13">
+        <v>44420</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>11477.13</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
